--- a/TahBaratoBase.xlsx
+++ b/TahBaratoBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Xamarin\JsonServerTahBarato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1B659C-D0BF-4BF5-83E5-669E239EE02F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BE8024-9743-4A32-AF4C-2F435723FBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{EBF4F4E4-3D88-4F01-97AF-EBF3DEECB9B2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Guaraná Antarctica</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>Dislikes</t>
   </si>
 </sst>
 </file>
@@ -556,19 +562,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D62323B-E179-4018-B279-4BEEFA577F8A}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +588,17 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -595,8 +611,17 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2">
+        <v>10.49</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -609,8 +634,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -623,8 +654,17 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -637,8 +677,17 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -650,6 +699,15 @@
       </c>
       <c r="D6">
         <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -659,10 +717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2663726C-26A8-478E-9980-5727A68D500E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,10 +728,9 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,14 +743,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -706,11 +760,8 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2">
-        <v>10.49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -723,11 +774,8 @@
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2">
-        <v>7.89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -740,11 +788,8 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2">
-        <v>4.8899999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -757,11 +802,8 @@
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -773,9 +815,6 @@
       </c>
       <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>6.75</v>
       </c>
     </row>
   </sheetData>

--- a/TahBaratoBase.xlsx
+++ b/TahBaratoBase.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Xamarin\JsonServerTahBarato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BE8024-9743-4A32-AF4C-2F435723FBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A32CF-B78D-4F0B-A8CB-67ADDD5BE51B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{EBF4F4E4-3D88-4F01-97AF-EBF3DEECB9B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{EBF4F4E4-3D88-4F01-97AF-EBF3DEECB9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Supermercados" sheetId="1" r:id="rId1"/>
     <sheet name="Ofertas" sheetId="2" r:id="rId2"/>
     <sheet name="Produto" sheetId="3" r:id="rId3"/>
+    <sheet name="Full" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -490,7 +491,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D62323B-E179-4018-B279-4BEEFA577F8A}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,6 +641,9 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -719,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2663726C-26A8-478E-9980-5727A68D500E}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,4 +824,220 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46482CE3-B627-466E-9866-9053B88A70EE}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43357</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10.49</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43359</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7.89</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43362</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1">
+        <v>43362</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>43362</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/TahBaratoBase.xlsx
+++ b/TahBaratoBase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Xamarin\JsonServerTahBarato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24A32CF-B78D-4F0B-A8CB-67ADDD5BE51B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3971258E-AE05-41F4-8DE9-AF57179875C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="1" xr2:uid="{EBF4F4E4-3D88-4F01-97AF-EBF3DEECB9B2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="3" xr2:uid="{EBF4F4E4-3D88-4F01-97AF-EBF3DEECB9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Supermercados" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Dislikes</t>
+  </si>
+  <si>
+    <t>Supermercado</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D62323B-E179-4018-B279-4BEEFA577F8A}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -828,10 +831,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46482CE3-B627-466E-9866-9053B88A70EE}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,15 +842,17 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
@@ -864,20 +869,17 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
       <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -896,20 +898,17 @@
       <c r="G2" s="1">
         <v>43357</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" s="2">
         <v>10.49</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -928,20 +927,17 @@
       <c r="G3" s="1">
         <v>43359</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="2">
         <v>7.89</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -960,20 +956,17 @@
       <c r="G4" s="1">
         <v>43362</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="2">
         <v>4.8899999999999997</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -992,20 +985,17 @@
       <c r="G5" s="1">
         <v>43362</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="2">
         <v>1.99</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1024,16 +1014,13 @@
       <c r="G6" s="1">
         <v>43362</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="2">
         <v>6.75</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
         <v>0</v>
       </c>
     </row>

--- a/TahBaratoBase.xlsx
+++ b/TahBaratoBase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marci\OneDrive\Xamarin\JsonServerTahBarato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3971258E-AE05-41F4-8DE9-AF57179875C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3CC5E2-3B97-45C4-84BA-7FE4868125B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="3" xr2:uid="{EBF4F4E4-3D88-4F01-97AF-EBF3DEECB9B2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Supermercado</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/marciovcampos/JsonServerTahBarato/master/img/arroz_tio_joao_5kg.png</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +149,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,16 +179,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -834,7 +848,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +856,7 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="102" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -895,6 +909,9 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="1">
         <v>43357</v>
       </c>
@@ -924,6 +941,9 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
       <c r="G3" s="1">
         <v>43359</v>
       </c>
@@ -953,6 +973,9 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G4" s="1">
         <v>43362</v>
       </c>
@@ -982,6 +1005,9 @@
       <c r="E5" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G5" s="1">
         <v>43362</v>
       </c>
@@ -1011,6 +1037,9 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G6" s="1">
         <v>43362</v>
       </c>
@@ -1025,6 +1054,12 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{6BD8B7FB-DD9B-4499-9B2A-037AAB898A6A}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{3A7883AE-5020-4B44-822F-3D6A36A6A581}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{1CCB26FD-C1A9-4758-875E-BD68DBD5E1C8}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{24D6CBF4-CB59-4471-8C25-62D7B199C330}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>